--- a/600399 power等分析.xlsx
+++ b/600399 power等分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="21255" windowHeight="9210" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="波段" sheetId="1" r:id="rId1"/>
@@ -3470,10 +3470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3521,6 +3521,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -3528,8 +3535,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -3546,19 +3580,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -3566,28 +3587,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -3600,24 +3601,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -3628,8 +3622,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -3751,13 +3751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3775,18 +3781,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3794,6 +3788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4048,6 +4048,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -4059,30 +4083,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4111,7 +4111,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4131,17 +4131,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4156,7 +4156,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4165,94 +4165,94 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4264,34 +4264,34 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6029,10 +6029,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8166,6 +8166,202 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="30">
+        <v>42493</v>
+      </c>
+      <c r="B32">
+        <v>99.8500000000003</v>
+      </c>
+      <c r="C32">
+        <v>2134</v>
+      </c>
+      <c r="D32">
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>710</v>
+      </c>
+      <c r="F32">
+        <v>1372</v>
+      </c>
+      <c r="G32">
+        <v>32506</v>
+      </c>
+      <c r="H32">
+        <v>15981</v>
+      </c>
+      <c r="I32" s="33">
+        <v>16525</v>
+      </c>
+      <c r="J32">
+        <v>54757</v>
+      </c>
+      <c r="K32">
+        <v>51766</v>
+      </c>
+      <c r="L32">
+        <v>2991</v>
+      </c>
+      <c r="M32">
+        <v>13228</v>
+      </c>
+      <c r="N32">
+        <v>13269</v>
+      </c>
+      <c r="O32">
+        <v>-41</v>
+      </c>
+      <c r="P32">
+        <v>445</v>
+      </c>
+      <c r="Q32">
+        <v>691</v>
+      </c>
+      <c r="R32">
+        <v>109914</v>
+      </c>
+      <c r="T32">
+        <v>854</v>
+      </c>
+      <c r="U32">
+        <v>2117</v>
+      </c>
+      <c r="V32">
+        <v>4804</v>
+      </c>
+      <c r="W32">
+        <v>5363</v>
+      </c>
+      <c r="X32">
+        <v>10858</v>
+      </c>
+      <c r="Y32">
+        <v>26500</v>
+      </c>
+      <c r="Z32">
+        <v>35588</v>
+      </c>
+      <c r="AA32">
+        <v>15914</v>
+      </c>
+      <c r="AB32">
+        <v>27367</v>
+      </c>
+      <c r="AC32">
+        <v>29004</v>
+      </c>
+      <c r="AD32">
+        <v>23138</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="30">
+        <v>42503</v>
+      </c>
+      <c r="B33">
+        <v>206.1</v>
+      </c>
+      <c r="C33">
+        <v>2072</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>610</v>
+      </c>
+      <c r="F33">
+        <v>1407</v>
+      </c>
+      <c r="G33">
+        <v>29814</v>
+      </c>
+      <c r="H33">
+        <v>24692</v>
+      </c>
+      <c r="I33" s="33">
+        <v>5122</v>
+      </c>
+      <c r="J33">
+        <v>60141</v>
+      </c>
+      <c r="K33">
+        <v>54971</v>
+      </c>
+      <c r="L33">
+        <v>5170</v>
+      </c>
+      <c r="M33">
+        <v>14147</v>
+      </c>
+      <c r="N33">
+        <v>14844</v>
+      </c>
+      <c r="O33">
+        <v>-697</v>
+      </c>
+      <c r="P33">
+        <v>2972</v>
+      </c>
+      <c r="Q33">
+        <v>303</v>
+      </c>
+      <c r="R33">
+        <v>96831</v>
+      </c>
+      <c r="T33">
+        <v>811</v>
+      </c>
+      <c r="U33">
+        <v>2071</v>
+      </c>
+      <c r="V33">
+        <v>5065</v>
+      </c>
+      <c r="W33">
+        <v>5365</v>
+      </c>
+      <c r="X33">
+        <v>10328</v>
+      </c>
+      <c r="Y33">
+        <v>20936</v>
+      </c>
+      <c r="Z33">
+        <v>31378</v>
+      </c>
+      <c r="AA33">
+        <v>19203</v>
+      </c>
+      <c r="AB33">
+        <v>30834</v>
+      </c>
+      <c r="AC33">
+        <v>42940</v>
+      </c>
+      <c r="AD33">
+        <v>27268</v>
+      </c>
+      <c r="AE33">
+        <v>2410</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8177,10 +8373,10 @@
   <sheetPr/>
   <dimension ref="A1:AG568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N318" sqref="N318"/>
+      <selection pane="bottomLeft" activeCell="I335" sqref="I335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25407,55 +25603,392 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:32">
       <c r="A332" s="30">
         <v>42500</v>
       </c>
+      <c r="B332">
+        <v>-51.1399999999998</v>
+      </c>
+      <c r="C332">
+        <v>1753</v>
+      </c>
+      <c r="D332">
+        <v>15</v>
+      </c>
+      <c r="E332">
+        <v>413</v>
+      </c>
+      <c r="F332">
+        <v>1325</v>
+      </c>
+      <c r="G332">
+        <v>7083</v>
+      </c>
+      <c r="H332">
+        <v>5178</v>
+      </c>
+      <c r="I332" s="33">
+        <v>1905</v>
+      </c>
+      <c r="J332">
+        <v>31267</v>
+      </c>
+      <c r="K332">
+        <v>32887</v>
+      </c>
       <c r="L332">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1620</v>
+      </c>
+      <c r="M332">
+        <v>13267</v>
+      </c>
+      <c r="N332">
+        <v>10992</v>
       </c>
       <c r="O332">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15">
+        <v>2275</v>
+      </c>
+      <c r="P332">
+        <v>604</v>
+      </c>
+      <c r="Q332">
+        <v>58870</v>
+      </c>
+      <c r="S332">
+        <v>1071</v>
+      </c>
+      <c r="T332">
+        <v>1999</v>
+      </c>
+      <c r="U332">
+        <v>4187</v>
+      </c>
+      <c r="V332">
+        <v>4185</v>
+      </c>
+      <c r="W332">
+        <v>7930</v>
+      </c>
+      <c r="X332">
+        <v>18252</v>
+      </c>
+      <c r="Y332">
+        <v>22263</v>
+      </c>
+      <c r="Z332">
+        <v>12386</v>
+      </c>
+      <c r="AA332">
+        <v>9478</v>
+      </c>
+      <c r="AB332">
+        <v>14621</v>
+      </c>
+      <c r="AC332">
+        <v>4302</v>
+      </c>
+      <c r="AD332">
+        <v>0</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:33">
       <c r="A333" s="30">
         <v>42501</v>
       </c>
+      <c r="B333">
+        <v>-149.269999999999</v>
+      </c>
+      <c r="C333">
+        <v>1623</v>
+      </c>
+      <c r="D333">
+        <v>17</v>
+      </c>
+      <c r="E333">
+        <v>339</v>
+      </c>
+      <c r="F333">
+        <v>1267</v>
+      </c>
+      <c r="G333">
+        <v>7343</v>
+      </c>
+      <c r="H333">
+        <v>10870</v>
+      </c>
+      <c r="I333" s="33">
+        <v>-3527</v>
+      </c>
+      <c r="J333">
+        <v>23284</v>
+      </c>
+      <c r="K333">
+        <v>31733</v>
+      </c>
       <c r="L333">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-8449</v>
+      </c>
+      <c r="M333">
+        <v>10262</v>
+      </c>
+      <c r="N333">
+        <v>11384</v>
       </c>
       <c r="O333">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15">
+        <v>-1122</v>
+      </c>
+      <c r="P333">
+        <v>16</v>
+      </c>
+      <c r="Q333">
+        <v>4000</v>
+      </c>
+      <c r="R333">
+        <v>53563</v>
+      </c>
+      <c r="T333">
+        <v>1152</v>
+      </c>
+      <c r="U333">
+        <v>2046</v>
+      </c>
+      <c r="V333">
+        <v>3445</v>
+      </c>
+      <c r="W333">
+        <v>4112</v>
+      </c>
+      <c r="X333">
+        <v>7137</v>
+      </c>
+      <c r="Y333">
+        <v>14635</v>
+      </c>
+      <c r="Z333">
+        <v>17951</v>
+      </c>
+      <c r="AA333">
+        <v>9637</v>
+      </c>
+      <c r="AB333">
+        <v>11210</v>
+      </c>
+      <c r="AC333">
+        <v>14694</v>
+      </c>
+      <c r="AD333">
+        <v>4857</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>4000</v>
+      </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:33">
       <c r="A334" s="30">
         <v>42502</v>
       </c>
+      <c r="B334">
+        <v>-284.569999999999</v>
+      </c>
+      <c r="C334">
+        <v>1897</v>
+      </c>
+      <c r="D334">
+        <v>21</v>
+      </c>
+      <c r="E334">
+        <v>512</v>
+      </c>
+      <c r="F334">
+        <v>1364</v>
+      </c>
+      <c r="G334">
+        <v>7382</v>
+      </c>
+      <c r="H334">
+        <v>14318</v>
+      </c>
+      <c r="I334" s="33">
+        <v>-6936</v>
+      </c>
+      <c r="J334">
+        <v>41431</v>
+      </c>
+      <c r="K334">
+        <v>41624</v>
+      </c>
       <c r="L334">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-193</v>
+      </c>
+      <c r="M334">
+        <v>14271</v>
+      </c>
+      <c r="N334">
+        <v>13413</v>
       </c>
       <c r="O334">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15">
+        <v>858</v>
+      </c>
+      <c r="P334">
+        <v>66</v>
+      </c>
+      <c r="Q334">
+        <v>4068</v>
+      </c>
+      <c r="R334">
+        <v>65772</v>
+      </c>
+      <c r="T334">
+        <v>905</v>
+      </c>
+      <c r="U334">
+        <v>1917</v>
+      </c>
+      <c r="V334">
+        <v>4248</v>
+      </c>
+      <c r="W334">
+        <v>4720</v>
+      </c>
+      <c r="X334">
+        <v>10834</v>
+      </c>
+      <c r="Y334">
+        <v>19962</v>
+      </c>
+      <c r="Z334">
+        <v>27426</v>
+      </c>
+      <c r="AA334">
+        <v>16930</v>
+      </c>
+      <c r="AB334">
+        <v>18795</v>
+      </c>
+      <c r="AC334">
+        <v>15990</v>
+      </c>
+      <c r="AD334">
+        <v>7526</v>
+      </c>
+      <c r="AE334">
+        <v>0</v>
+      </c>
+      <c r="AF334">
+        <v>3186</v>
+      </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:33">
       <c r="A335" s="30">
         <v>42503</v>
       </c>
+      <c r="B335">
+        <v>206.1</v>
+      </c>
+      <c r="C335">
+        <v>2072</v>
+      </c>
+      <c r="D335">
+        <v>55</v>
+      </c>
+      <c r="E335">
+        <v>610</v>
+      </c>
+      <c r="F335">
+        <v>1407</v>
+      </c>
+      <c r="G335">
+        <v>29814</v>
+      </c>
+      <c r="H335">
+        <v>24692</v>
+      </c>
+      <c r="I335" s="33">
+        <v>5122</v>
+      </c>
+      <c r="J335">
+        <v>60141</v>
+      </c>
+      <c r="K335">
+        <v>54971</v>
+      </c>
       <c r="L335">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5170</v>
+      </c>
+      <c r="M335">
+        <v>14147</v>
+      </c>
+      <c r="N335">
+        <v>14844</v>
       </c>
       <c r="O335">
-        <f t="shared" si="8"/>
+        <v>-697</v>
+      </c>
+      <c r="P335">
+        <v>2972</v>
+      </c>
+      <c r="Q335">
+        <v>303</v>
+      </c>
+      <c r="R335">
+        <v>96831</v>
+      </c>
+      <c r="T335">
+        <v>811</v>
+      </c>
+      <c r="U335">
+        <v>2071</v>
+      </c>
+      <c r="V335">
+        <v>5065</v>
+      </c>
+      <c r="W335">
+        <v>5365</v>
+      </c>
+      <c r="X335">
+        <v>10328</v>
+      </c>
+      <c r="Y335">
+        <v>20936</v>
+      </c>
+      <c r="Z335">
+        <v>31378</v>
+      </c>
+      <c r="AA335">
+        <v>19203</v>
+      </c>
+      <c r="AB335">
+        <v>30834</v>
+      </c>
+      <c r="AC335">
+        <v>42940</v>
+      </c>
+      <c r="AD335">
+        <v>27268</v>
+      </c>
+      <c r="AE335">
+        <v>2410</v>
+      </c>
+      <c r="AF335">
+        <v>0</v>
+      </c>
+      <c r="AG335">
         <v>0</v>
       </c>
     </row>
